--- a/StructureDefinition-lm-medikation.xlsx
+++ b/StructureDefinition-lm-medikation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
